--- a/Varios/Errubrikak.xlsx
+++ b/Varios/Errubrikak.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1AW3-7\Desktop\RETO 24-25\RETO-24-25\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\1AW3-7\Desktop\RETO 24-25\RETO-24-25\Varios\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ENTORNOS DE DESARROLLO" sheetId="1" r:id="rId1"/>
@@ -426,7 +426,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,6 +461,18 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFFFF"/>
         <bgColor rgb="FFFFFFFF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -524,7 +536,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -544,9 +556,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
@@ -570,9 +579,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -601,6 +607,18 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="3" fillId="7" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="3" fillId="8" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="7" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="8" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -821,8 +839,8 @@
   </sheetPr>
   <dimension ref="A1:G15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I5" sqref="I5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -885,7 +903,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="7">
+      <c r="G3" s="28">
         <v>0.1</v>
       </c>
     </row>
@@ -901,7 +919,7 @@
       <c r="G4" s="4"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B5" s="6" t="s">
@@ -917,7 +935,7 @@
         <v>17</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="7">
+      <c r="G5" s="28">
         <v>0.15</v>
       </c>
     </row>
@@ -938,7 +956,7 @@
         <v>22</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="7">
+      <c r="G6" s="28">
         <v>0.2</v>
       </c>
     </row>
@@ -970,7 +988,7 @@
         <v>28</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="7">
+      <c r="G8" s="29">
         <v>0.1</v>
       </c>
     </row>
@@ -1002,7 +1020,7 @@
         <v>34</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="7">
+      <c r="G10" s="28">
         <v>0.15</v>
       </c>
     </row>
@@ -1024,7 +1042,7 @@
       <c r="B12" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C12" s="9" t="s">
+      <c r="C12" s="8" t="s">
         <v>37</v>
       </c>
       <c r="D12" s="6" t="s">
@@ -1034,7 +1052,7 @@
         <v>39</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="7">
+      <c r="G12" s="29">
         <v>0.15</v>
       </c>
     </row>
@@ -1045,7 +1063,7 @@
       <c r="B13" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="C13" s="9" t="s">
+      <c r="C13" s="8" t="s">
         <v>41</v>
       </c>
       <c r="D13" s="6" t="s">
@@ -1055,12 +1073,12 @@
         <v>43</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="7">
+      <c r="G13" s="29">
         <v>0.15</v>
       </c>
     </row>
     <row r="15" spans="1:7">
-      <c r="G15" s="10">
+      <c r="G15" s="9">
         <f>SUM(G2:G13)</f>
         <v>1</v>
       </c>
@@ -1077,8 +1095,8 @@
   </sheetPr>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="I10" sqref="I10"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1108,348 +1126,348 @@
         <v>4</v>
       </c>
       <c r="F1" s="2"/>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
     </row>
     <row r="2" spans="1:26" ht="132">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="13" t="s">
         <v>45</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="14" t="s">
         <v>46</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="14" t="s">
         <v>49</v>
       </c>
       <c r="F2" s="2"/>
-      <c r="G2" s="16">
+      <c r="G2" s="27">
         <v>0.1</v>
       </c>
     </row>
     <row r="3" spans="1:26" ht="158.4">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="15" t="s">
         <v>51</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="16" t="s">
         <v>52</v>
       </c>
-      <c r="D3" s="18" t="s">
+      <c r="D3" s="16" t="s">
         <v>53</v>
       </c>
-      <c r="E3" s="18" t="s">
+      <c r="E3" s="16" t="s">
         <v>54</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="16">
+      <c r="G3" s="26">
         <v>0.05</v>
       </c>
     </row>
     <row r="4" spans="1:26" ht="184.8">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="14" t="s">
         <v>56</v>
       </c>
-      <c r="C4" s="15" t="s">
+      <c r="C4" s="14" t="s">
         <v>57</v>
       </c>
-      <c r="D4" s="15" t="s">
+      <c r="D4" s="14" t="s">
         <v>58</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="14" t="s">
         <v>59</v>
       </c>
       <c r="F4" s="2"/>
-      <c r="G4" s="16">
+      <c r="G4" s="26">
         <v>0.05</v>
       </c>
-      <c r="I4" s="12"/>
-      <c r="M4" s="12"/>
+      <c r="I4" s="11"/>
+      <c r="M4" s="11"/>
     </row>
     <row r="5" spans="1:26" ht="171.6">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="13" t="s">
         <v>60</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="14" t="s">
         <v>61</v>
       </c>
-      <c r="C5" s="18" t="s">
+      <c r="C5" s="16" t="s">
         <v>62</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="16" t="s">
         <v>63</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="14" t="s">
         <v>64</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="16">
+      <c r="G5" s="26">
         <v>0.1</v>
       </c>
-      <c r="I5" s="12"/>
+      <c r="I5" s="11"/>
     </row>
     <row r="6" spans="1:26" ht="79.2">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="B6" s="19" t="s">
+      <c r="B6" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="C6" s="19" t="s">
+      <c r="C6" s="17" t="s">
         <v>67</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="17" t="s">
         <v>68</v>
       </c>
-      <c r="E6" s="19" t="s">
+      <c r="E6" s="17" t="s">
         <v>69</v>
       </c>
       <c r="F6" s="2"/>
-      <c r="G6" s="16">
+      <c r="G6" s="27">
         <v>0.05</v>
       </c>
     </row>
     <row r="7" spans="1:26" ht="105.6">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="13" t="s">
         <v>70</v>
       </c>
-      <c r="B7" s="19" t="s">
+      <c r="B7" s="17" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="19" t="s">
+      <c r="C7" s="17" t="s">
         <v>72</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="17" t="s">
         <v>73</v>
       </c>
-      <c r="E7" s="19" t="s">
+      <c r="E7" s="17" t="s">
         <v>74</v>
       </c>
       <c r="F7" s="2"/>
-      <c r="G7" s="16">
+      <c r="G7" s="27">
         <v>0.1</v>
       </c>
-      <c r="M7" s="12"/>
+      <c r="M7" s="11"/>
     </row>
     <row r="8" spans="1:26" ht="75" customHeight="1">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="18" t="s">
         <v>76</v>
       </c>
-      <c r="C8" s="20" t="s">
+      <c r="C8" s="18" t="s">
         <v>77</v>
       </c>
-      <c r="D8" s="20" t="s">
+      <c r="D8" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="E8" s="20" t="s">
+      <c r="E8" s="18" t="s">
         <v>79</v>
       </c>
       <c r="F8" s="2"/>
-      <c r="G8" s="16">
+      <c r="G8" s="27">
         <v>0.05</v>
       </c>
     </row>
     <row r="9" spans="1:26" ht="75" customHeight="1">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="C9" s="20" t="s">
+      <c r="C9" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="D9" s="20" t="s">
+      <c r="D9" s="18" t="s">
         <v>83</v>
       </c>
-      <c r="E9" s="20" t="s">
+      <c r="E9" s="18" t="s">
         <v>84</v>
       </c>
       <c r="F9" s="2"/>
-      <c r="G9" s="16">
+      <c r="G9" s="27">
         <v>0.05</v>
       </c>
     </row>
     <row r="10" spans="1:26" ht="158.4">
-      <c r="A10" s="14" t="s">
+      <c r="A10" s="13" t="s">
         <v>85</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="14" t="s">
         <v>86</v>
       </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>87</v>
       </c>
-      <c r="D10" s="20" t="s">
+      <c r="D10" s="18" t="s">
         <v>88</v>
       </c>
-      <c r="E10" s="20" t="s">
+      <c r="E10" s="18" t="s">
         <v>89</v>
       </c>
       <c r="F10" s="2"/>
-      <c r="G10" s="16">
+      <c r="G10" s="27">
         <v>0.05</v>
       </c>
-      <c r="N10" s="12"/>
+      <c r="N10" s="11"/>
     </row>
     <row r="11" spans="1:26" ht="369.6">
-      <c r="A11" s="21" t="s">
+      <c r="A11" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="B11" s="22" t="s">
+      <c r="B11" s="20" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="22" t="s">
+      <c r="C11" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="D11" s="20" t="s">
         <v>93</v>
       </c>
-      <c r="E11" s="22" t="s">
+      <c r="E11" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="F11" s="23"/>
-      <c r="G11" s="16">
+      <c r="F11" s="21"/>
+      <c r="G11" s="26">
         <v>0.15</v>
       </c>
-      <c r="H11" s="24"/>
-      <c r="I11" s="24"/>
-      <c r="J11" s="24"/>
-      <c r="K11" s="24"/>
-      <c r="L11" s="24"/>
-      <c r="M11" s="24"/>
-      <c r="N11" s="24"/>
-      <c r="O11" s="25"/>
-      <c r="P11" s="25"/>
-      <c r="Q11" s="25"/>
-      <c r="R11" s="25"/>
-      <c r="S11" s="25"/>
-      <c r="T11" s="25"/>
-      <c r="U11" s="25"/>
-      <c r="V11" s="25"/>
-      <c r="W11" s="25"/>
-      <c r="X11" s="25"/>
-      <c r="Y11" s="25"/>
-      <c r="Z11" s="25"/>
+      <c r="H11" s="22"/>
+      <c r="I11" s="22"/>
+      <c r="J11" s="22"/>
+      <c r="K11" s="22"/>
+      <c r="L11" s="22"/>
+      <c r="M11" s="22"/>
+      <c r="N11" s="22"/>
+      <c r="O11" s="23"/>
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23"/>
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23"/>
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23"/>
     </row>
     <row r="12" spans="1:26" ht="79.2">
-      <c r="A12" s="14" t="s">
+      <c r="A12" s="13" t="s">
         <v>95</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="18" t="s">
         <v>96</v>
       </c>
-      <c r="C12" s="20" t="s">
+      <c r="C12" s="18" t="s">
         <v>97</v>
       </c>
-      <c r="D12" s="20" t="s">
+      <c r="D12" s="18" t="s">
         <v>98</v>
       </c>
-      <c r="E12" s="20" t="s">
+      <c r="E12" s="18" t="s">
         <v>99</v>
       </c>
       <c r="F12" s="2"/>
-      <c r="G12" s="16">
+      <c r="G12" s="27">
         <v>0.1</v>
       </c>
-      <c r="M12" s="12"/>
+      <c r="M12" s="11"/>
     </row>
     <row r="13" spans="1:26" ht="79.2">
-      <c r="A13" s="14" t="s">
+      <c r="A13" s="13" t="s">
         <v>100</v>
       </c>
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="14" t="s">
         <v>101</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="C13" s="14" t="s">
         <v>102</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="D13" s="14" t="s">
         <v>103</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="14" t="s">
         <v>104</v>
       </c>
       <c r="F13" s="2"/>
-      <c r="G13" s="16">
+      <c r="G13" s="26">
         <v>0.05</v>
       </c>
-      <c r="I13" s="12"/>
+      <c r="I13" s="11"/>
     </row>
     <row r="14" spans="1:26" ht="79.2">
-      <c r="A14" s="14" t="s">
+      <c r="A14" s="13" t="s">
         <v>105</v>
       </c>
-      <c r="B14" s="11" t="s">
+      <c r="B14" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C14" s="11" t="s">
+      <c r="C14" s="10" t="s">
         <v>107</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E14" s="11" t="s">
+      <c r="E14" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F14" s="26"/>
-      <c r="G14" s="16">
+      <c r="F14" s="24"/>
+      <c r="G14" s="27">
         <v>0.05</v>
       </c>
-      <c r="I14" s="12"/>
+      <c r="I14" s="11"/>
     </row>
     <row r="15" spans="1:26" ht="79.2">
-      <c r="A15" s="14" t="s">
+      <c r="A15" s="13" t="s">
         <v>110</v>
       </c>
-      <c r="B15" s="11" t="s">
+      <c r="B15" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C15" s="11" t="s">
+      <c r="C15" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="10" t="s">
         <v>113</v>
       </c>
-      <c r="E15" s="11" t="s">
+      <c r="E15" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="F15" s="26"/>
-      <c r="G15" s="16">
+      <c r="F15" s="24"/>
+      <c r="G15" s="26">
         <v>0.05</v>
       </c>
-      <c r="I15" s="12"/>
+      <c r="I15" s="11"/>
     </row>
     <row r="16" spans="1:26" ht="13.2">
-      <c r="G16" s="27">
+      <c r="G16" s="25">
         <f>SUM(G2:G15)</f>
         <v>1.0000000000000002</v>
       </c>
     </row>
     <row r="17" spans="9:13" ht="13.2">
-      <c r="I17" s="12"/>
-      <c r="M17" s="12"/>
+      <c r="I17" s="11"/>
+      <c r="M17" s="11"/>
     </row>
   </sheetData>
   <printOptions horizontalCentered="1" gridLines="1"/>

--- a/Varios/Errubrikak.xlsx
+++ b/Varios/Errubrikak.xlsx
@@ -840,7 +840,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="I5"/>
+      <selection activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -903,7 +903,7 @@
         <v>11</v>
       </c>
       <c r="F3" s="2"/>
-      <c r="G3" s="28">
+      <c r="G3" s="29">
         <v>0.1</v>
       </c>
     </row>
@@ -1095,8 +1095,8 @@
   </sheetPr>
   <dimension ref="A1:Z17"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="C4" zoomScale="95" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="15.75" customHeight="1"/>
@@ -1348,7 +1348,7 @@
         <v>94</v>
       </c>
       <c r="F11" s="21"/>
-      <c r="G11" s="26">
+      <c r="G11" s="27">
         <v>0.15</v>
       </c>
       <c r="H11" s="22"/>
